--- a/natmiOut/OldD4/LR-pairs_lrc2p/Pdgfa-Pdgfra.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Pdgfa-Pdgfra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.02140613108599</v>
+        <v>10.313064</v>
       </c>
       <c r="H2">
-        <v>5.02140613108599</v>
+        <v>30.939192</v>
       </c>
       <c r="I2">
-        <v>0.102908343050327</v>
+        <v>0.1565731863895583</v>
       </c>
       <c r="J2">
-        <v>0.102908343050327</v>
+        <v>0.1974684887046383</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.714682989702133</v>
+        <v>0.8475826666666667</v>
       </c>
       <c r="N2">
-        <v>0.714682989702133</v>
+        <v>2.542748</v>
       </c>
       <c r="O2">
-        <v>0.004769562457928523</v>
+        <v>0.00510369540012338</v>
       </c>
       <c r="P2">
-        <v>0.004769562457928523</v>
+        <v>0.005118348529504506</v>
       </c>
       <c r="Q2">
-        <v>3.588713546273156</v>
+        <v>8.741174286624</v>
       </c>
       <c r="R2">
-        <v>3.588713546273156</v>
+        <v>78.670568579616</v>
       </c>
       <c r="S2">
-        <v>0.0004908277696204695</v>
+        <v>0.0007991018511590491</v>
       </c>
       <c r="T2">
-        <v>0.0004908277696204695</v>
+        <v>0.001010712548784863</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.02140613108599</v>
+        <v>10.313064</v>
       </c>
       <c r="H3">
-        <v>5.02140613108599</v>
+        <v>30.939192</v>
       </c>
       <c r="I3">
-        <v>0.102908343050327</v>
+        <v>0.1565731863895583</v>
       </c>
       <c r="J3">
-        <v>0.102908343050327</v>
+        <v>0.1974684887046383</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>148.592331226131</v>
+        <v>163.6808596666667</v>
       </c>
       <c r="N3">
-        <v>148.592331226131</v>
+        <v>491.042579</v>
       </c>
       <c r="O3">
-        <v>0.9916570210347619</v>
+        <v>0.9855997337160513</v>
       </c>
       <c r="P3">
-        <v>0.9916570210347619</v>
+        <v>0.9884294716380667</v>
       </c>
       <c r="Q3">
-        <v>746.1424430512543</v>
+        <v>1688.051181317352</v>
       </c>
       <c r="R3">
-        <v>746.1424430512543</v>
+        <v>15192.46063185617</v>
       </c>
       <c r="S3">
-        <v>0.1020497809089106</v>
+        <v>0.1543184908126223</v>
       </c>
       <c r="T3">
-        <v>0.1020497809089106</v>
+        <v>0.1951836739554932</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.02140613108599</v>
+        <v>10.313064</v>
       </c>
       <c r="H4">
-        <v>5.02140613108599</v>
+        <v>30.939192</v>
       </c>
       <c r="I4">
-        <v>0.102908343050327</v>
+        <v>0.1565731863895583</v>
       </c>
       <c r="J4">
-        <v>0.102908343050327</v>
+        <v>0.1974684887046383</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.535449533457636</v>
+        <v>0.05170233333333333</v>
       </c>
       <c r="N4">
-        <v>0.535449533457636</v>
+        <v>0.155107</v>
       </c>
       <c r="O4">
-        <v>0.003573416507309467</v>
+        <v>0.0003113241589126949</v>
       </c>
       <c r="P4">
-        <v>0.003573416507309467</v>
+        <v>0.0003122179961859592</v>
       </c>
       <c r="Q4">
-        <v>2.688709570191306</v>
+        <v>0.5332094726159999</v>
       </c>
       <c r="R4">
-        <v>2.688709570191306</v>
+        <v>4.798885253543999</v>
       </c>
       <c r="S4">
-        <v>0.0003677343717959041</v>
+        <v>4.874501556100984E-05</v>
       </c>
       <c r="T4">
-        <v>0.0003677343717959041</v>
+        <v>6.16532158532319E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.63373091190065</v>
+        <v>10.313064</v>
       </c>
       <c r="H5">
-        <v>3.63373091190065</v>
+        <v>30.939192</v>
       </c>
       <c r="I5">
-        <v>0.07446942499223355</v>
+        <v>0.1565731863895583</v>
       </c>
       <c r="J5">
-        <v>0.07446942499223355</v>
+        <v>0.1974684887046383</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.714682989702133</v>
+        <v>0.065874</v>
       </c>
       <c r="N5">
-        <v>0.714682989702133</v>
+        <v>0.197622</v>
       </c>
       <c r="O5">
-        <v>0.004769562457928523</v>
+        <v>0.0003966584546967229</v>
       </c>
       <c r="P5">
-        <v>0.004769562457928523</v>
+        <v>0.0003977972937537418</v>
       </c>
       <c r="Q5">
-        <v>2.596965671890215</v>
+        <v>0.679362777936</v>
       </c>
       <c r="R5">
-        <v>2.596965671890215</v>
+        <v>6.114265001423999</v>
       </c>
       <c r="S5">
-        <v>0.0003551865737064813</v>
+        <v>6.210607816022415E-05</v>
       </c>
       <c r="T5">
-        <v>0.0003551865737064813</v>
+        <v>7.855243040834646E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.63373091190065</v>
+        <v>10.313064</v>
       </c>
       <c r="H6">
-        <v>3.63373091190065</v>
+        <v>30.939192</v>
       </c>
       <c r="I6">
-        <v>0.07446942499223355</v>
+        <v>0.1565731863895583</v>
       </c>
       <c r="J6">
-        <v>0.07446942499223355</v>
+        <v>0.1974684887046383</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>148.592331226131</v>
+        <v>1.426327</v>
       </c>
       <c r="N6">
-        <v>148.592331226131</v>
+        <v>2.852654</v>
       </c>
       <c r="O6">
-        <v>0.9916570210347619</v>
+        <v>0.008588588270216057</v>
       </c>
       <c r="P6">
-        <v>0.9916570210347619</v>
+        <v>0.005742164542489129</v>
       </c>
       <c r="Q6">
-        <v>539.9445472477724</v>
+        <v>14.709801635928</v>
       </c>
       <c r="R6">
-        <v>539.9445472477724</v>
+        <v>88.25880981556799</v>
       </c>
       <c r="S6">
-        <v>0.07384812814596997</v>
+        <v>0.001344742632055713</v>
       </c>
       <c r="T6">
-        <v>0.07384812814596997</v>
+        <v>0.001133896554098689</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.63373091190065</v>
+        <v>4.111509000000001</v>
       </c>
       <c r="H7">
-        <v>3.63373091190065</v>
+        <v>12.334527</v>
       </c>
       <c r="I7">
-        <v>0.07446942499223355</v>
+        <v>0.06242102880379163</v>
       </c>
       <c r="J7">
-        <v>0.07446942499223355</v>
+        <v>0.0787247580860081</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.535449533457636</v>
+        <v>0.8475826666666667</v>
       </c>
       <c r="N7">
-        <v>0.535449533457636</v>
+        <v>2.542748</v>
       </c>
       <c r="O7">
-        <v>0.003573416507309467</v>
+        <v>0.00510369540012338</v>
       </c>
       <c r="P7">
-        <v>0.003573416507309467</v>
+        <v>0.005118348529504506</v>
       </c>
       <c r="Q7">
-        <v>1.945679521487793</v>
+        <v>3.484843762244001</v>
       </c>
       <c r="R7">
-        <v>1.945679521487793</v>
+        <v>31.363593860196</v>
       </c>
       <c r="S7">
-        <v>0.0002661102725570915</v>
+        <v>0.0003185779175768804</v>
       </c>
       <c r="T7">
-        <v>0.0002661102725570915</v>
+        <v>0.0004029407497851175</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,122 +903,122 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.63163926618277</v>
+        <v>4.111509000000001</v>
       </c>
       <c r="H8">
-        <v>4.63163926618277</v>
+        <v>12.334527</v>
       </c>
       <c r="I8">
-        <v>0.09492048841439137</v>
+        <v>0.06242102880379163</v>
       </c>
       <c r="J8">
-        <v>0.09492048841439137</v>
+        <v>0.0787247580860081</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.714682989702133</v>
+        <v>163.6808596666667</v>
       </c>
       <c r="N8">
-        <v>0.714682989702133</v>
+        <v>491.042579</v>
       </c>
       <c r="O8">
-        <v>0.004769562457928523</v>
+        <v>0.9855997337160513</v>
       </c>
       <c r="P8">
-        <v>0.004769562457928523</v>
+        <v>0.9884294716380667</v>
       </c>
       <c r="Q8">
-        <v>3.310153797977295</v>
+        <v>672.9753276472372</v>
       </c>
       <c r="R8">
-        <v>3.310153797977295</v>
+        <v>6056.777948825134</v>
       </c>
       <c r="S8">
-        <v>0.0004527291980295204</v>
+        <v>0.061522149367299</v>
       </c>
       <c r="T8">
-        <v>0.0004527291980295204</v>
+        <v>0.0778138710397876</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.63163926618277</v>
+        <v>4.111509000000001</v>
       </c>
       <c r="H9">
-        <v>4.63163926618277</v>
+        <v>12.334527</v>
       </c>
       <c r="I9">
-        <v>0.09492048841439137</v>
+        <v>0.06242102880379163</v>
       </c>
       <c r="J9">
-        <v>0.09492048841439137</v>
+        <v>0.0787247580860081</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>148.592331226131</v>
+        <v>0.05170233333333333</v>
       </c>
       <c r="N9">
-        <v>148.592331226131</v>
+        <v>0.155107</v>
       </c>
       <c r="O9">
-        <v>0.9916570210347619</v>
+        <v>0.0003113241589126949</v>
       </c>
       <c r="P9">
-        <v>0.9916570210347619</v>
+        <v>0.0003122179961859592</v>
       </c>
       <c r="Q9">
-        <v>688.2260759605845</v>
+        <v>0.212574608821</v>
       </c>
       <c r="R9">
-        <v>688.2260759605845</v>
+        <v>1.913171479389</v>
       </c>
       <c r="S9">
-        <v>0.09412856877617998</v>
+        <v>1.943317429080553E-05</v>
       </c>
       <c r="T9">
-        <v>0.09412856877617998</v>
+        <v>2.457928621983784E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.63163926618277</v>
+        <v>4.111509000000001</v>
       </c>
       <c r="H10">
-        <v>4.63163926618277</v>
+        <v>12.334527</v>
       </c>
       <c r="I10">
-        <v>0.09492048841439137</v>
+        <v>0.06242102880379163</v>
       </c>
       <c r="J10">
-        <v>0.09492048841439137</v>
+        <v>0.0787247580860081</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.535449533457636</v>
+        <v>0.065874</v>
       </c>
       <c r="N10">
-        <v>0.535449533457636</v>
+        <v>0.197622</v>
       </c>
       <c r="O10">
-        <v>0.003573416507309467</v>
+        <v>0.0003966584546967229</v>
       </c>
       <c r="P10">
-        <v>0.003573416507309467</v>
+        <v>0.0003977972937537418</v>
       </c>
       <c r="Q10">
-        <v>2.480009084221632</v>
+        <v>0.2708415438660001</v>
       </c>
       <c r="R10">
-        <v>2.480009084221632</v>
+        <v>2.437573894794</v>
       </c>
       <c r="S10">
-        <v>0.0003391904401818631</v>
+        <v>2.475982882589162E-05</v>
       </c>
       <c r="T10">
-        <v>0.0003391904401818631</v>
+        <v>3.131649571803203E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.98914177847441</v>
+        <v>4.111509000000001</v>
       </c>
       <c r="H11">
-        <v>3.98914177847441</v>
+        <v>12.334527</v>
       </c>
       <c r="I11">
-        <v>0.08175319022181007</v>
+        <v>0.06242102880379163</v>
       </c>
       <c r="J11">
-        <v>0.08175319022181007</v>
+        <v>0.0787247580860081</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.714682989702133</v>
+        <v>1.426327</v>
       </c>
       <c r="N11">
-        <v>0.714682989702133</v>
+        <v>2.852654</v>
       </c>
       <c r="O11">
-        <v>0.004769562457928523</v>
+        <v>0.008588588270216057</v>
       </c>
       <c r="P11">
-        <v>0.004769562457928523</v>
+        <v>0.005742164542489129</v>
       </c>
       <c r="Q11">
-        <v>2.850971772585775</v>
+        <v>5.864356297443001</v>
       </c>
       <c r="R11">
-        <v>2.850971772585775</v>
+        <v>35.186137784658</v>
       </c>
       <c r="S11">
-        <v>0.0003899269468978345</v>
+        <v>0.0005361085157990635</v>
       </c>
       <c r="T11">
-        <v>0.0003899269468978345</v>
+        <v>0.00045205051449751</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.98914177847441</v>
+        <v>5.706169333333333</v>
       </c>
       <c r="H12">
-        <v>3.98914177847441</v>
+        <v>17.118508</v>
       </c>
       <c r="I12">
-        <v>0.08175319022181007</v>
+        <v>0.08663120044618956</v>
       </c>
       <c r="J12">
-        <v>0.08175319022181007</v>
+        <v>0.1092583770008687</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>148.592331226131</v>
+        <v>0.8475826666666667</v>
       </c>
       <c r="N12">
-        <v>148.592331226131</v>
+        <v>2.542748</v>
       </c>
       <c r="O12">
-        <v>0.9916570210347619</v>
+        <v>0.00510369540012338</v>
       </c>
       <c r="P12">
-        <v>0.9916570210347619</v>
+        <v>0.005118348529504506</v>
       </c>
       <c r="Q12">
-        <v>592.7558764550668</v>
+        <v>4.836450219998222</v>
       </c>
       <c r="R12">
-        <v>592.7558764550668</v>
+        <v>43.528051979984</v>
       </c>
       <c r="S12">
-        <v>0.08107112507544841</v>
+        <v>0.0004421392592243842</v>
       </c>
       <c r="T12">
-        <v>0.08107112507544841</v>
+        <v>0.0005592224532584453</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.98914177847441</v>
+        <v>5.706169333333333</v>
       </c>
       <c r="H13">
-        <v>3.98914177847441</v>
+        <v>17.118508</v>
       </c>
       <c r="I13">
-        <v>0.08175319022181007</v>
+        <v>0.08663120044618956</v>
       </c>
       <c r="J13">
-        <v>0.08175319022181007</v>
+        <v>0.1092583770008687</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.535449533457636</v>
+        <v>163.6808596666667</v>
       </c>
       <c r="N13">
-        <v>0.535449533457636</v>
+        <v>491.042579</v>
       </c>
       <c r="O13">
-        <v>0.003573416507309467</v>
+        <v>0.9855997337160513</v>
       </c>
       <c r="P13">
-        <v>0.003573416507309467</v>
+        <v>0.9884294716380667</v>
       </c>
       <c r="Q13">
-        <v>2.135984104180487</v>
+        <v>933.9907018835702</v>
       </c>
       <c r="R13">
-        <v>2.135984104180487</v>
+        <v>8405.916316952133</v>
       </c>
       <c r="S13">
-        <v>0.000292138199463827</v>
+        <v>0.0853836880912663</v>
       </c>
       <c r="T13">
-        <v>0.000292138199463827</v>
+        <v>0.1079941998510014</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>31.5190190597776</v>
+        <v>5.706169333333333</v>
       </c>
       <c r="H14">
-        <v>31.5190190597776</v>
+        <v>17.118508</v>
       </c>
       <c r="I14">
-        <v>0.645948553321238</v>
+        <v>0.08663120044618956</v>
       </c>
       <c r="J14">
-        <v>0.645948553321238</v>
+        <v>0.1092583770008687</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.714682989702133</v>
+        <v>0.05170233333333333</v>
       </c>
       <c r="N14">
-        <v>0.714682989702133</v>
+        <v>0.155107</v>
       </c>
       <c r="O14">
-        <v>0.004769562457928523</v>
+        <v>0.0003113241589126949</v>
       </c>
       <c r="P14">
-        <v>0.004769562457928523</v>
+        <v>0.0003122179961859592</v>
       </c>
       <c r="Q14">
-        <v>22.52610677412037</v>
+        <v>0.2950222689284444</v>
       </c>
       <c r="R14">
-        <v>22.52610677412037</v>
+        <v>2.655200420356</v>
       </c>
       <c r="S14">
-        <v>0.003080891969674218</v>
+        <v>2.697038561450704E-05</v>
       </c>
       <c r="T14">
-        <v>0.003080891969674218</v>
+        <v>3.411243153374132E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>31.5190190597776</v>
+        <v>5.706169333333333</v>
       </c>
       <c r="H15">
-        <v>31.5190190597776</v>
+        <v>17.118508</v>
       </c>
       <c r="I15">
-        <v>0.645948553321238</v>
+        <v>0.08663120044618956</v>
       </c>
       <c r="J15">
-        <v>0.645948553321238</v>
+        <v>0.1092583770008687</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>148.592331226131</v>
+        <v>0.065874</v>
       </c>
       <c r="N15">
-        <v>148.592331226131</v>
+        <v>0.197622</v>
       </c>
       <c r="O15">
-        <v>0.9916570210347619</v>
+        <v>0.0003966584546967229</v>
       </c>
       <c r="P15">
-        <v>0.9916570210347619</v>
+        <v>0.0003977972937537418</v>
       </c>
       <c r="Q15">
-        <v>4683.484520053209</v>
+        <v>0.375888198664</v>
       </c>
       <c r="R15">
-        <v>4683.484520053209</v>
+        <v>3.382993787975999</v>
       </c>
       <c r="S15">
-        <v>0.640559418128253</v>
+        <v>3.43629980975076E-05</v>
       </c>
       <c r="T15">
-        <v>0.640559418128253</v>
+        <v>4.346268669087164E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,672 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>31.5190190597776</v>
+        <v>5.706169333333333</v>
       </c>
       <c r="H16">
-        <v>31.5190190597776</v>
+        <v>17.118508</v>
       </c>
       <c r="I16">
-        <v>0.645948553321238</v>
+        <v>0.08663120044618956</v>
       </c>
       <c r="J16">
-        <v>0.645948553321238</v>
+        <v>0.1092583770008687</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.535449533457636</v>
+        <v>1.426327</v>
       </c>
       <c r="N16">
-        <v>0.535449533457636</v>
+        <v>2.852654</v>
       </c>
       <c r="O16">
-        <v>0.003573416507309467</v>
+        <v>0.008588588270216057</v>
       </c>
       <c r="P16">
-        <v>0.003573416507309467</v>
+        <v>0.005742164542489129</v>
       </c>
       <c r="Q16">
-        <v>16.87684405060025</v>
+        <v>8.138863386705331</v>
       </c>
       <c r="R16">
-        <v>16.87684405060025</v>
+        <v>48.83318032023199</v>
       </c>
       <c r="S16">
-        <v>0.002308243223310781</v>
+        <v>0.0007440397119868798</v>
       </c>
       <c r="T16">
-        <v>0.002308243223310781</v>
+        <v>0.000627379578384298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.813652666666667</v>
+      </c>
+      <c r="H17">
+        <v>14.440958</v>
+      </c>
+      <c r="I17">
+        <v>0.07308099088618032</v>
+      </c>
+      <c r="J17">
+        <v>0.09216899238051067</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.8475826666666667</v>
+      </c>
+      <c r="N17">
+        <v>2.542748</v>
+      </c>
+      <c r="O17">
+        <v>0.00510369540012338</v>
+      </c>
+      <c r="P17">
+        <v>0.005118348529504506</v>
+      </c>
+      <c r="Q17">
+        <v>4.079968563620445</v>
+      </c>
+      <c r="R17">
+        <v>36.719717072584</v>
+      </c>
+      <c r="S17">
+        <v>0.0003729831170222571</v>
+      </c>
+      <c r="T17">
+        <v>0.0004717530266166988</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>4.813652666666667</v>
+      </c>
+      <c r="H18">
+        <v>14.440958</v>
+      </c>
+      <c r="I18">
+        <v>0.07308099088618032</v>
+      </c>
+      <c r="J18">
+        <v>0.09216899238051067</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>163.6808596666667</v>
+      </c>
+      <c r="N18">
+        <v>491.042579</v>
+      </c>
+      <c r="O18">
+        <v>0.9855997337160513</v>
+      </c>
+      <c r="P18">
+        <v>0.9884294716380667</v>
+      </c>
+      <c r="Q18">
+        <v>787.9028066167426</v>
+      </c>
+      <c r="R18">
+        <v>7091.125259550683</v>
+      </c>
+      <c r="S18">
+        <v>0.07202860515712449</v>
+      </c>
+      <c r="T18">
+        <v>0.09110254844008116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>4.813652666666667</v>
+      </c>
+      <c r="H19">
+        <v>14.440958</v>
+      </c>
+      <c r="I19">
+        <v>0.07308099088618032</v>
+      </c>
+      <c r="J19">
+        <v>0.09216899238051067</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.05170233333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.155107</v>
+      </c>
+      <c r="O19">
+        <v>0.0003113241589126949</v>
+      </c>
+      <c r="P19">
+        <v>0.0003122179961859592</v>
+      </c>
+      <c r="Q19">
+        <v>0.2488770747228889</v>
+      </c>
+      <c r="R19">
+        <v>2.239893672506</v>
+      </c>
+      <c r="S19">
+        <v>2.275187802014641E-05</v>
+      </c>
+      <c r="T19">
+        <v>2.877681811152199E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>4.813652666666667</v>
+      </c>
+      <c r="H20">
+        <v>14.440958</v>
+      </c>
+      <c r="I20">
+        <v>0.07308099088618032</v>
+      </c>
+      <c r="J20">
+        <v>0.09216899238051067</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.065874</v>
+      </c>
+      <c r="N20">
+        <v>0.197622</v>
+      </c>
+      <c r="O20">
+        <v>0.0003966584546967229</v>
+      </c>
+      <c r="P20">
+        <v>0.0003977972937537418</v>
+      </c>
+      <c r="Q20">
+        <v>0.317094555764</v>
+      </c>
+      <c r="R20">
+        <v>2.853851001876</v>
+      </c>
+      <c r="S20">
+        <v>2.898819291261757E-05</v>
+      </c>
+      <c r="T20">
+        <v>3.66645757369764E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>4.813652666666667</v>
+      </c>
+      <c r="H21">
+        <v>14.440958</v>
+      </c>
+      <c r="I21">
+        <v>0.07308099088618032</v>
+      </c>
+      <c r="J21">
+        <v>0.09216899238051067</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.426327</v>
+      </c>
+      <c r="N21">
+        <v>2.852654</v>
+      </c>
+      <c r="O21">
+        <v>0.008588588270216057</v>
+      </c>
+      <c r="P21">
+        <v>0.005742164542489129</v>
+      </c>
+      <c r="Q21">
+        <v>6.865842767088667</v>
+      </c>
+      <c r="R21">
+        <v>41.195056602532</v>
+      </c>
+      <c r="S21">
+        <v>0.0006276625411008149</v>
+      </c>
+      <c r="T21">
+        <v>0.0005292495199643191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>40.92297499999999</v>
+      </c>
+      <c r="H22">
+        <v>81.84594999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.6212935934742801</v>
+      </c>
+      <c r="J22">
+        <v>0.5223793838279743</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.8475826666666667</v>
+      </c>
+      <c r="N22">
+        <v>2.542748</v>
+      </c>
+      <c r="O22">
+        <v>0.00510369540012338</v>
+      </c>
+      <c r="P22">
+        <v>0.005118348529504506</v>
+      </c>
+      <c r="Q22">
+        <v>34.68560427843333</v>
+      </c>
+      <c r="R22">
+        <v>208.1136256706</v>
+      </c>
+      <c r="S22">
+        <v>0.003170893255140809</v>
+      </c>
+      <c r="T22">
+        <v>0.002673719751059382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>40.92297499999999</v>
+      </c>
+      <c r="H23">
+        <v>81.84594999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.6212935934742801</v>
+      </c>
+      <c r="J23">
+        <v>0.5223793838279743</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>163.6808596666667</v>
+      </c>
+      <c r="N23">
+        <v>491.042579</v>
+      </c>
+      <c r="O23">
+        <v>0.9855997337160513</v>
+      </c>
+      <c r="P23">
+        <v>0.9884294716380667</v>
+      </c>
+      <c r="Q23">
+        <v>6698.307728117508</v>
+      </c>
+      <c r="R23">
+        <v>40189.84636870505</v>
+      </c>
+      <c r="S23">
+        <v>0.6123468002877391</v>
+      </c>
+      <c r="T23">
+        <v>0.5163351783517035</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>40.92297499999999</v>
+      </c>
+      <c r="H24">
+        <v>81.84594999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.6212935934742801</v>
+      </c>
+      <c r="J24">
+        <v>0.5223793838279743</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.05170233333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.155107</v>
+      </c>
+      <c r="O24">
+        <v>0.0003113241589126949</v>
+      </c>
+      <c r="P24">
+        <v>0.0003122179961859592</v>
+      </c>
+      <c r="Q24">
+        <v>2.115813294441666</v>
+      </c>
+      <c r="R24">
+        <v>12.69487976665</v>
+      </c>
+      <c r="S24">
+        <v>0.0001934237054262261</v>
+      </c>
+      <c r="T24">
+        <v>0.0001630962444676262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>40.92297499999999</v>
+      </c>
+      <c r="H25">
+        <v>81.84594999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.6212935934742801</v>
+      </c>
+      <c r="J25">
+        <v>0.5223793838279743</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.065874</v>
+      </c>
+      <c r="N25">
+        <v>0.197622</v>
+      </c>
+      <c r="O25">
+        <v>0.0003966584546967229</v>
+      </c>
+      <c r="P25">
+        <v>0.0003977972937537418</v>
+      </c>
+      <c r="Q25">
+        <v>2.69576005515</v>
+      </c>
+      <c r="R25">
+        <v>16.1745603309</v>
+      </c>
+      <c r="S25">
+        <v>0.0002464413567004819</v>
+      </c>
+      <c r="T25">
+        <v>0.0002078011051995154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>40.92297499999999</v>
+      </c>
+      <c r="H26">
+        <v>81.84594999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.6212935934742801</v>
+      </c>
+      <c r="J26">
+        <v>0.5223793838279743</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.426327</v>
+      </c>
+      <c r="N26">
+        <v>2.852654</v>
+      </c>
+      <c r="O26">
+        <v>0.008588588270216057</v>
+      </c>
+      <c r="P26">
+        <v>0.005742164542489129</v>
+      </c>
+      <c r="Q26">
+        <v>58.36954416282499</v>
+      </c>
+      <c r="R26">
+        <v>233.4781766512999</v>
+      </c>
+      <c r="S26">
+        <v>0.005336034869273586</v>
+      </c>
+      <c r="T26">
+        <v>0.002999588375544314</v>
       </c>
     </row>
   </sheetData>
